--- a/INEvalidador/archivos/Expresiones.xlsx
+++ b/INEvalidador/archivos/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\INEvalidador\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945912E-0064-41B2-9520-88A303F62F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D9775-6450-4DD8-99AB-C70528130359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BC6CB29-8217-455D-A529-7598899AF50C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8595" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8594" uniqueCount="5183">
   <si>
     <t>E</t>
   </si>
@@ -15042,29 +15042,6 @@
   </si>
   <si>
     <t>P15A10: En los próximos 5 años, considera probable Usted que podria perder INVOLUNTARIAMENTE los derechos de propiedad o uso de esta parcela ?</t>
-  </si>
-  <si>
-    <t>16A00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificacion de informacion si hay prductores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">si hay algun productor dentro de los miembros del hogar que indique la informacion correspondiente </t>
-  </si>
-  <si>
-    <t>P16A01 = 1 &amp; (P16A02 es (vacio)| P16A03 es (vacio) |P16A04 es (vacio) |P16A05 es (vacio) | P16A07 es (vacio) )</t>
-  </si>
-  <si>
-    <t>DEPTO, MUPIO, SECTOR, VIVIENDA, HOGAR, CP, P16A01, P16A02, P16A03, P16A04, P16A05, P16A07</t>
-  </si>
-  <si>
-    <t>P16A01: Actualmente o durante los últimos 12 meses, ¿algún miembro de este hogar tuvo tierras, para sembrar o cosechar productos agrícolas, criar o tener animales, cortó o taló arboles?
-P16A02: ¿Cuántos productores agropecuarios hay en este hogar?
-P16A03: ¿Cuál es el código del productor en la pestaña?
-P16A04: ¿Cuál es el tamaño de la cuerda usada por el productor?
-P16A05: En los últimos 12 meses, ¿dió tierras agropecuarias en arrendamiento a otras personas?
-P16A07: En los últimos 12 meses, ¿vendió terrenos para uso agropecuario?</t>
   </si>
   <si>
     <t>16A00102</t>
@@ -17213,6 +17190,21 @@
   </si>
   <si>
     <t>CA100100</t>
+  </si>
+  <si>
+    <t>13A00701</t>
+  </si>
+  <si>
+    <t>VERIFICACION DE LA CANTIDAD Y EL PRECIO DE PRODUCTOS </t>
+  </si>
+  <si>
+    <t>Si el producto esta en libras y su cantidad es igual a su precio es incorrecto ya que la libra de las carnes no puede tener ese precio </t>
+  </si>
+  <si>
+    <t>P13A04A está en (27,29,30,31,32,33) &amp; P13A07C = 30 &amp; P13A07A = P13A07E</t>
+  </si>
+  <si>
+    <t>P13A04A, P13A07C, P13A07A, P13A07E</t>
   </si>
 </sst>
 </file>
@@ -17570,8 +17562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84826ADD-80A5-4981-8B9B-25017DB158F5}">
   <dimension ref="A1:L1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" workbookViewId="0">
+      <selection activeCell="L1057" sqref="L1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32006,22 +31998,22 @@
         <v>4</v>
       </c>
       <c r="E411" t="s">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="F411" t="s">
-        <v>5178</v>
+        <v>5172</v>
       </c>
       <c r="G411" t="s">
-        <v>5179</v>
+        <v>5173</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>5181</v>
+        <v>5175</v>
       </c>
       <c r="J411" t="s">
-        <v>5180</v>
+        <v>5174</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>5182</v>
+        <v>5176</v>
       </c>
       <c r="L411" t="s">
         <v>1829</v>
@@ -50281,7 +50273,7 @@
         <v>1</v>
       </c>
       <c r="D931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E931" t="s">
         <v>4543</v>
@@ -50305,7 +50297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="932" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>16</v>
       </c>
@@ -50313,10 +50305,10 @@
         <v>14</v>
       </c>
       <c r="C932">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D932">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E932" t="s">
         <v>4549</v>
@@ -50351,7 +50343,7 @@
         <v>5</v>
       </c>
       <c r="D933">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E933" t="s">
         <v>4555</v>
@@ -50366,16 +50358,16 @@
         <v>4558</v>
       </c>
       <c r="J933" t="s">
-        <v>4559</v>
+        <v>4553</v>
       </c>
       <c r="K933" s="1" t="s">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="L933" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="934" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>16</v>
       </c>
@@ -50386,25 +50378,25 @@
         <v>5</v>
       </c>
       <c r="D934">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E934" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F934" t="s">
+        <v>4560</v>
+      </c>
+      <c r="G934" t="s">
         <v>4561</v>
       </c>
-      <c r="F934" t="s">
+      <c r="H934" t="s">
         <v>4562</v>
       </c>
-      <c r="G934" t="s">
+      <c r="J934" t="s">
         <v>4563</v>
       </c>
-      <c r="H934" t="s">
+      <c r="K934" s="1" t="s">
         <v>4564</v>
-      </c>
-      <c r="J934" t="s">
-        <v>4559</v>
-      </c>
-      <c r="K934" s="1" t="s">
-        <v>4560</v>
       </c>
       <c r="L934" t="s">
         <v>22</v>
@@ -50418,10 +50410,10 @@
         <v>14</v>
       </c>
       <c r="C935">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D935">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E935" t="s">
         <v>4565</v>
@@ -50456,7 +50448,7 @@
         <v>7</v>
       </c>
       <c r="D936">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E936" t="s">
         <v>4571</v>
@@ -50471,51 +50463,51 @@
         <v>4574</v>
       </c>
       <c r="J936" t="s">
-        <v>4575</v>
+        <v>4569</v>
       </c>
       <c r="K936" s="1" t="s">
-        <v>4576</v>
+        <v>4570</v>
       </c>
       <c r="L936" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="937" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>16</v>
       </c>
       <c r="B937" t="s">
-        <v>14</v>
+        <v>735</v>
       </c>
       <c r="C937">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D937">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E937" t="s">
+        <v>4575</v>
+      </c>
+      <c r="F937" t="s">
+        <v>4576</v>
+      </c>
+      <c r="G937" t="s">
         <v>4577</v>
       </c>
-      <c r="F937" t="s">
+      <c r="H937" t="s">
         <v>4578</v>
       </c>
-      <c r="G937" t="s">
+      <c r="J937" t="s">
         <v>4579</v>
       </c>
-      <c r="H937" t="s">
+      <c r="K937" s="1" t="s">
         <v>4580</v>
       </c>
-      <c r="J937" t="s">
-        <v>4575</v>
-      </c>
-      <c r="K937" s="1" t="s">
-        <v>4576</v>
-      </c>
       <c r="L937" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="938" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>16</v>
       </c>
@@ -50523,7 +50515,7 @@
         <v>735</v>
       </c>
       <c r="C938">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D938">
         <v>1</v>
@@ -50541,16 +50533,16 @@
         <v>4584</v>
       </c>
       <c r="J938" t="s">
+        <v>4579</v>
+      </c>
+      <c r="K938" s="1" t="s">
         <v>4585</v>
-      </c>
-      <c r="K938" s="1" t="s">
-        <v>4586</v>
       </c>
       <c r="L938" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="939" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>16</v>
       </c>
@@ -50558,25 +50550,25 @@
         <v>735</v>
       </c>
       <c r="C939">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D939">
         <v>1</v>
       </c>
       <c r="E939" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F939" t="s">
         <v>4587</v>
       </c>
-      <c r="F939" t="s">
+      <c r="G939" t="s">
         <v>4588</v>
       </c>
-      <c r="G939" t="s">
+      <c r="H939" t="s">
         <v>4589</v>
       </c>
-      <c r="H939" t="s">
+      <c r="J939" t="s">
         <v>4590</v>
-      </c>
-      <c r="J939" t="s">
-        <v>4585</v>
       </c>
       <c r="K939" s="1" t="s">
         <v>4591</v>
@@ -50593,7 +50585,7 @@
         <v>735</v>
       </c>
       <c r="C940">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D940">
         <v>1</v>
@@ -50611,16 +50603,16 @@
         <v>4595</v>
       </c>
       <c r="J940" t="s">
-        <v>4596</v>
+        <v>4590</v>
       </c>
       <c r="K940" s="1" t="s">
-        <v>4597</v>
+        <v>4591</v>
       </c>
       <c r="L940" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="941" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>16</v>
       </c>
@@ -50628,34 +50620,34 @@
         <v>735</v>
       </c>
       <c r="C941">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D941">
         <v>1</v>
       </c>
       <c r="E941" t="s">
+        <v>4596</v>
+      </c>
+      <c r="F941" t="s">
+        <v>4597</v>
+      </c>
+      <c r="G941" t="s">
         <v>4598</v>
       </c>
-      <c r="F941" t="s">
+      <c r="H941" t="s">
         <v>4599</v>
       </c>
-      <c r="G941" t="s">
+      <c r="J941" t="s">
         <v>4600</v>
       </c>
-      <c r="H941" t="s">
+      <c r="K941" s="1" t="s">
         <v>4601</v>
-      </c>
-      <c r="J941" t="s">
-        <v>4596</v>
-      </c>
-      <c r="K941" s="1" t="s">
-        <v>4597</v>
       </c>
       <c r="L941" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="942" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>16</v>
       </c>
@@ -50663,7 +50655,7 @@
         <v>735</v>
       </c>
       <c r="C942">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D942">
         <v>1</v>
@@ -50695,13 +50687,13 @@
         <v>16</v>
       </c>
       <c r="B943" t="s">
-        <v>735</v>
+        <v>123</v>
       </c>
       <c r="C943">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D943">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E943" t="s">
         <v>4608</v>
@@ -50722,10 +50714,10 @@
         <v>4613</v>
       </c>
       <c r="L943" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="944" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>16</v>
       </c>
@@ -50733,10 +50725,10 @@
         <v>123</v>
       </c>
       <c r="C944">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D944">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E944" t="s">
         <v>4614</v>
@@ -50771,7 +50763,7 @@
         <v>2</v>
       </c>
       <c r="D945">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E945" t="s">
         <v>4620</v>
@@ -50786,51 +50778,51 @@
         <v>4623</v>
       </c>
       <c r="J945" t="s">
-        <v>4624</v>
+        <v>4618</v>
       </c>
       <c r="K945" s="1" t="s">
-        <v>4625</v>
+        <v>4619</v>
       </c>
       <c r="L945" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="946" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A946">
-        <v>16</v>
-      </c>
+    <row r="946" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B946" t="s">
         <v>123</v>
       </c>
       <c r="C946">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D946">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E946" t="s">
+        <v>4624</v>
+      </c>
+      <c r="F946" t="s">
+        <v>4625</v>
+      </c>
+      <c r="G946" t="s">
         <v>4626</v>
       </c>
-      <c r="F946" t="s">
+      <c r="H946" t="s">
         <v>4627</v>
       </c>
-      <c r="G946" t="s">
+      <c r="J946" t="s">
         <v>4628</v>
       </c>
-      <c r="H946" t="s">
+      <c r="K946" s="1" t="s">
         <v>4629</v>
-      </c>
-      <c r="J946" t="s">
-        <v>4624</v>
-      </c>
-      <c r="K946" s="1" t="s">
-        <v>4625</v>
       </c>
       <c r="L946" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="947" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>16</v>
+      </c>
       <c r="B947" t="s">
         <v>123</v>
       </c>
@@ -50838,7 +50830,7 @@
         <v>5</v>
       </c>
       <c r="D947">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E947" t="s">
         <v>4630</v>
@@ -50853,51 +50845,51 @@
         <v>4633</v>
       </c>
       <c r="J947" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="K947" s="1" t="s">
-        <v>4635</v>
+        <v>4629</v>
       </c>
       <c r="L947" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="948" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>16</v>
       </c>
       <c r="B948" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C948">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D948">
-        <v>2</v>
-      </c>
-      <c r="E948" t="s">
+        <v>1</v>
+      </c>
+      <c r="E948" s="2">
+        <v>1.6E+102</v>
+      </c>
+      <c r="F948" t="s">
+        <v>4634</v>
+      </c>
+      <c r="G948" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H948" t="s">
         <v>4636</v>
       </c>
-      <c r="F948" t="s">
+      <c r="J948" t="s">
         <v>4637</v>
       </c>
-      <c r="G948" t="s">
+      <c r="K948" s="1" t="s">
         <v>4638</v>
-      </c>
-      <c r="H948" t="s">
-        <v>4639</v>
-      </c>
-      <c r="J948" t="s">
-        <v>4634</v>
-      </c>
-      <c r="K948" s="1" t="s">
-        <v>4635</v>
       </c>
       <c r="L948" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="949" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>16</v>
       </c>
@@ -50908,31 +50900,31 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E949" s="2">
-        <v>1.6E+102</v>
+        <v>1.6E+103</v>
       </c>
       <c r="F949" t="s">
+        <v>4639</v>
+      </c>
+      <c r="G949" t="s">
         <v>4640</v>
       </c>
-      <c r="G949" t="s">
+      <c r="H949" t="s">
         <v>4641</v>
       </c>
-      <c r="H949" t="s">
+      <c r="J949" t="s">
         <v>4642</v>
       </c>
-      <c r="J949" t="s">
+      <c r="K949" s="1" t="s">
         <v>4643</v>
       </c>
-      <c r="K949" s="1" t="s">
+      <c r="L949" t="s">
         <v>4644</v>
       </c>
-      <c r="L949" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="950" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="950" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>16</v>
       </c>
@@ -50940,13 +50932,13 @@
         <v>0</v>
       </c>
       <c r="C950">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D950">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E950" s="2">
-        <v>1.6E+103</v>
+        <v>1.6000000000000001E+302</v>
       </c>
       <c r="F950" t="s">
         <v>4645</v>
@@ -50964,7 +50956,7 @@
         <v>4649</v>
       </c>
       <c r="L950" t="s">
-        <v>4650</v>
+        <v>22</v>
       </c>
     </row>
     <row r="951" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -50978,31 +50970,31 @@
         <v>3</v>
       </c>
       <c r="D951">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E951" s="2">
-        <v>1.6000000000000001E+302</v>
+        <v>1.6000000000000001E+303</v>
       </c>
       <c r="F951" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G951" t="s">
         <v>4651</v>
       </c>
-      <c r="G951" t="s">
+      <c r="H951" t="s">
         <v>4652</v>
       </c>
-      <c r="H951" t="s">
-        <v>4653</v>
-      </c>
       <c r="J951" t="s">
-        <v>4654</v>
+        <v>4648</v>
       </c>
       <c r="K951" s="1" t="s">
-        <v>4655</v>
+        <v>4649</v>
       </c>
       <c r="L951" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="952" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>16</v>
       </c>
@@ -51010,47 +51002,47 @@
         <v>0</v>
       </c>
       <c r="C952">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D952">
         <v>2</v>
       </c>
-      <c r="E952" s="2">
-        <v>1.6000000000000001E+303</v>
+      <c r="E952" s="2" t="s">
+        <v>4653</v>
       </c>
       <c r="F952" t="s">
+        <v>4654</v>
+      </c>
+      <c r="G952" t="s">
+        <v>4655</v>
+      </c>
+      <c r="H952" t="s">
         <v>4656</v>
       </c>
-      <c r="G952" t="s">
+      <c r="J952" t="s">
         <v>4657</v>
       </c>
-      <c r="H952" t="s">
+      <c r="K952" s="1" t="s">
         <v>4658</v>
-      </c>
-      <c r="J952" t="s">
-        <v>4654</v>
-      </c>
-      <c r="K952" s="1" t="s">
-        <v>4655</v>
       </c>
       <c r="L952" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="953" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>16</v>
       </c>
       <c r="B953" t="s">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="C953">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D953">
-        <v>2</v>
-      </c>
-      <c r="E953" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E953" t="s">
         <v>4659</v>
       </c>
       <c r="F953" t="s">
@@ -51062,6 +51054,9 @@
       <c r="H953" t="s">
         <v>4662</v>
       </c>
+      <c r="I953" t="s">
+        <v>128</v>
+      </c>
       <c r="J953" t="s">
         <v>4663</v>
       </c>
@@ -51069,7 +51064,7 @@
         <v>4664</v>
       </c>
       <c r="L953" t="s">
-        <v>22</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="954" spans="1:12" ht="285" x14ac:dyDescent="0.25">
@@ -51083,7 +51078,7 @@
         <v>2</v>
       </c>
       <c r="D954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E954" t="s">
         <v>4665</v>
@@ -51104,13 +51099,13 @@
         <v>4669</v>
       </c>
       <c r="K954" s="1" t="s">
-        <v>4670</v>
+        <v>4664</v>
       </c>
       <c r="L954" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="955" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>16</v>
       </c>
@@ -51118,31 +51113,31 @@
         <v>2084</v>
       </c>
       <c r="C955">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D955">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E955" t="s">
+        <v>4670</v>
+      </c>
+      <c r="F955" t="s">
         <v>4671</v>
       </c>
-      <c r="F955" t="s">
+      <c r="G955" t="s">
         <v>4672</v>
       </c>
-      <c r="G955" t="s">
+      <c r="H955" t="s">
         <v>4673</v>
-      </c>
-      <c r="H955" t="s">
-        <v>4674</v>
       </c>
       <c r="I955" t="s">
         <v>128</v>
       </c>
       <c r="J955" t="s">
+        <v>4674</v>
+      </c>
+      <c r="K955" s="1" t="s">
         <v>4675</v>
-      </c>
-      <c r="K955" s="1" t="s">
-        <v>4670</v>
       </c>
       <c r="L955" t="s">
         <v>3634</v>
@@ -51159,7 +51154,7 @@
         <v>3</v>
       </c>
       <c r="D956">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E956" t="s">
         <v>4676</v>
@@ -51177,48 +51172,48 @@
         <v>128</v>
       </c>
       <c r="J956" t="s">
-        <v>4680</v>
+        <v>4674</v>
       </c>
       <c r="K956" s="1" t="s">
-        <v>4681</v>
+        <v>4675</v>
       </c>
       <c r="L956" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="957" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>16</v>
       </c>
       <c r="B957" t="s">
-        <v>2084</v>
+        <v>356</v>
       </c>
       <c r="C957">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D957">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E957" t="s">
+        <v>4680</v>
+      </c>
+      <c r="F957" t="s">
+        <v>4681</v>
+      </c>
+      <c r="G957" t="s">
         <v>4682</v>
       </c>
-      <c r="F957" t="s">
+      <c r="H957" t="s">
         <v>4683</v>
-      </c>
-      <c r="G957" t="s">
-        <v>4684</v>
-      </c>
-      <c r="H957" t="s">
-        <v>4685</v>
       </c>
       <c r="I957" t="s">
         <v>128</v>
       </c>
       <c r="J957" t="s">
-        <v>4680</v>
+        <v>4684</v>
       </c>
       <c r="K957" s="1" t="s">
-        <v>4681</v>
+        <v>4685</v>
       </c>
       <c r="L957" t="s">
         <v>3634</v>
@@ -51235,7 +51230,7 @@
         <v>2</v>
       </c>
       <c r="D958">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E958" t="s">
         <v>4686</v>
@@ -51253,16 +51248,16 @@
         <v>128</v>
       </c>
       <c r="J958" t="s">
-        <v>4690</v>
+        <v>4684</v>
       </c>
       <c r="K958" s="1" t="s">
-        <v>4691</v>
+        <v>4685</v>
       </c>
       <c r="L958" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="959" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>16</v>
       </c>
@@ -51270,31 +51265,31 @@
         <v>356</v>
       </c>
       <c r="C959">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D959">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E959" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F959" t="s">
+        <v>4691</v>
+      </c>
+      <c r="G959" t="s">
         <v>4692</v>
       </c>
-      <c r="F959" t="s">
+      <c r="H959" t="s">
         <v>4693</v>
-      </c>
-      <c r="G959" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H959" t="s">
-        <v>4695</v>
       </c>
       <c r="I959" t="s">
         <v>128</v>
       </c>
       <c r="J959" t="s">
-        <v>4690</v>
+        <v>4694</v>
       </c>
       <c r="K959" s="1" t="s">
-        <v>4691</v>
+        <v>4695</v>
       </c>
       <c r="L959" t="s">
         <v>3634</v>
@@ -51311,66 +51306,66 @@
         <v>3</v>
       </c>
       <c r="D960">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E960" t="s">
         <v>4696</v>
       </c>
       <c r="F960" t="s">
+        <v>4691</v>
+      </c>
+      <c r="G960" t="s">
+        <v>4692</v>
+      </c>
+      <c r="H960" t="s">
         <v>4697</v>
-      </c>
-      <c r="G960" t="s">
-        <v>4698</v>
-      </c>
-      <c r="H960" t="s">
-        <v>4699</v>
       </c>
       <c r="I960" t="s">
         <v>128</v>
       </c>
       <c r="J960" t="s">
-        <v>4700</v>
+        <v>4694</v>
       </c>
       <c r="K960" s="1" t="s">
-        <v>4701</v>
+        <v>4695</v>
       </c>
       <c r="L960" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="961" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>16</v>
       </c>
       <c r="B961" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C961">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D961">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E961" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
       <c r="F961" t="s">
-        <v>4697</v>
+        <v>4699</v>
       </c>
       <c r="G961" t="s">
-        <v>4698</v>
+        <v>4700</v>
       </c>
       <c r="H961" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="I961" t="s">
         <v>128</v>
       </c>
       <c r="J961" t="s">
-        <v>4700</v>
+        <v>4702</v>
       </c>
       <c r="K961" s="1" t="s">
-        <v>4701</v>
+        <v>4703</v>
       </c>
       <c r="L961" t="s">
         <v>3634</v>
@@ -51387,7 +51382,7 @@
         <v>2</v>
       </c>
       <c r="D962">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E962" t="s">
         <v>4704</v>
@@ -51405,10 +51400,10 @@
         <v>128</v>
       </c>
       <c r="J962" t="s">
-        <v>4708</v>
+        <v>4702</v>
       </c>
       <c r="K962" s="1" t="s">
-        <v>4709</v>
+        <v>4703</v>
       </c>
       <c r="L962" t="s">
         <v>3634</v>
@@ -51422,31 +51417,31 @@
         <v>364</v>
       </c>
       <c r="C963">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D963">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E963" t="s">
+        <v>4708</v>
+      </c>
+      <c r="F963" t="s">
+        <v>4709</v>
+      </c>
+      <c r="G963" t="s">
         <v>4710</v>
       </c>
-      <c r="F963" t="s">
+      <c r="H963" t="s">
         <v>4711</v>
-      </c>
-      <c r="G963" t="s">
-        <v>4712</v>
-      </c>
-      <c r="H963" t="s">
-        <v>4713</v>
       </c>
       <c r="I963" t="s">
         <v>128</v>
       </c>
       <c r="J963" t="s">
-        <v>4708</v>
+        <v>4712</v>
       </c>
       <c r="K963" s="1" t="s">
-        <v>4709</v>
+        <v>4713</v>
       </c>
       <c r="L963" t="s">
         <v>3634</v>
@@ -51463,7 +51458,7 @@
         <v>3</v>
       </c>
       <c r="D964">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E964" t="s">
         <v>4714</v>
@@ -51481,48 +51476,48 @@
         <v>128</v>
       </c>
       <c r="J964" t="s">
-        <v>4718</v>
+        <v>4712</v>
       </c>
       <c r="K964" s="1" t="s">
-        <v>4719</v>
+        <v>4713</v>
       </c>
       <c r="L964" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="965" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>16</v>
       </c>
       <c r="B965" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="C965">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D965">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E965" t="s">
+        <v>4718</v>
+      </c>
+      <c r="F965" t="s">
+        <v>4719</v>
+      </c>
+      <c r="G965" t="s">
         <v>4720</v>
       </c>
-      <c r="F965" t="s">
+      <c r="H965" t="s">
         <v>4721</v>
-      </c>
-      <c r="G965" t="s">
-        <v>4722</v>
-      </c>
-      <c r="H965" t="s">
-        <v>4723</v>
       </c>
       <c r="I965" t="s">
         <v>128</v>
       </c>
       <c r="J965" t="s">
-        <v>4718</v>
+        <v>4722</v>
       </c>
       <c r="K965" s="1" t="s">
-        <v>4719</v>
+        <v>4723</v>
       </c>
       <c r="L965" t="s">
         <v>3634</v>
@@ -51539,7 +51534,7 @@
         <v>2</v>
       </c>
       <c r="D966">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E966" t="s">
         <v>4724</v>
@@ -51557,16 +51552,16 @@
         <v>128</v>
       </c>
       <c r="J966" t="s">
-        <v>4728</v>
+        <v>4722</v>
       </c>
       <c r="K966" s="1" t="s">
-        <v>4729</v>
+        <v>4723</v>
       </c>
       <c r="L966" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="967" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>16</v>
       </c>
@@ -51574,83 +51569,80 @@
         <v>456</v>
       </c>
       <c r="C967">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D967">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E967" t="s">
+        <v>4728</v>
+      </c>
+      <c r="F967" t="s">
+        <v>4729</v>
+      </c>
+      <c r="G967" t="s">
         <v>4730</v>
       </c>
-      <c r="F967" t="s">
+      <c r="H967" t="s">
         <v>4731</v>
-      </c>
-      <c r="G967" t="s">
-        <v>4732</v>
-      </c>
-      <c r="H967" t="s">
-        <v>4733</v>
       </c>
       <c r="I967" t="s">
         <v>128</v>
       </c>
       <c r="J967" t="s">
-        <v>4728</v>
+        <v>4732</v>
       </c>
       <c r="K967" s="1" t="s">
-        <v>4729</v>
+        <v>4733</v>
       </c>
       <c r="L967" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="968" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>16</v>
       </c>
       <c r="B968" t="s">
-        <v>456</v>
+        <v>4734</v>
       </c>
       <c r="C968">
         <v>3</v>
       </c>
       <c r="D968">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E968" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
       <c r="F968" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="G968" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="H968" t="s">
-        <v>4737</v>
-      </c>
-      <c r="I968" t="s">
-        <v>128</v>
+        <v>4738</v>
       </c>
       <c r="J968" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="K968" s="1" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="L968" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="969" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>16</v>
       </c>
       <c r="B969" t="s">
-        <v>4740</v>
+        <v>4734</v>
       </c>
       <c r="C969">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D969">
         <v>1</v>
@@ -51682,13 +51674,13 @@
         <v>16</v>
       </c>
       <c r="B970" t="s">
-        <v>4740</v>
+        <v>4734</v>
       </c>
       <c r="C970">
         <v>4</v>
       </c>
       <c r="D970">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E970" t="s">
         <v>4747</v>
@@ -51703,51 +51695,51 @@
         <v>4750</v>
       </c>
       <c r="J970" t="s">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="K970" s="1" t="s">
-        <v>4752</v>
+        <v>4746</v>
       </c>
       <c r="L970" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="971" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B971" t="s">
-        <v>4740</v>
+        <v>14</v>
       </c>
       <c r="C971">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D971">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E971" t="s">
+        <v>4751</v>
+      </c>
+      <c r="F971" t="s">
+        <v>4752</v>
+      </c>
+      <c r="G971" t="s">
         <v>4753</v>
       </c>
-      <c r="F971" t="s">
+      <c r="H971" t="s">
         <v>4754</v>
       </c>
-      <c r="G971" t="s">
+      <c r="J971" t="s">
         <v>4755</v>
       </c>
-      <c r="H971" t="s">
+      <c r="K971" s="1" t="s">
         <v>4756</v>
       </c>
-      <c r="J971" t="s">
-        <v>4751</v>
-      </c>
-      <c r="K971" s="1" t="s">
-        <v>4752</v>
-      </c>
       <c r="L971" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="972" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>17</v>
       </c>
@@ -51758,31 +51750,31 @@
         <v>1</v>
       </c>
       <c r="D972">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E972" t="s">
         <v>4757</v>
       </c>
       <c r="F972" t="s">
+        <v>4752</v>
+      </c>
+      <c r="G972" t="s">
         <v>4758</v>
       </c>
-      <c r="G972" t="s">
+      <c r="H972" t="s">
         <v>4759</v>
       </c>
-      <c r="H972" t="s">
+      <c r="J972" t="s">
         <v>4760</v>
       </c>
-      <c r="J972" t="s">
+      <c r="K972" s="1" t="s">
         <v>4761</v>
-      </c>
-      <c r="K972" s="1" t="s">
-        <v>4762</v>
       </c>
       <c r="L972" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="973" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>17</v>
       </c>
@@ -51793,13 +51785,13 @@
         <v>1</v>
       </c>
       <c r="D973">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E973" t="s">
+        <v>4762</v>
+      </c>
+      <c r="F973" t="s">
         <v>4763</v>
-      </c>
-      <c r="F973" t="s">
-        <v>4758</v>
       </c>
       <c r="G973" t="s">
         <v>4764</v>
@@ -51817,7 +51809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="974" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>17</v>
       </c>
@@ -51825,10 +51817,10 @@
         <v>14</v>
       </c>
       <c r="C974">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D974">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E974" t="s">
         <v>4768</v>
@@ -51852,7 +51844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="975" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>17</v>
       </c>
@@ -51863,31 +51855,31 @@
         <v>2</v>
       </c>
       <c r="D975">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E975" t="s">
         <v>4774</v>
       </c>
       <c r="F975" t="s">
+        <v>4769</v>
+      </c>
+      <c r="G975" t="s">
         <v>4775</v>
       </c>
-      <c r="G975" t="s">
+      <c r="H975" t="s">
         <v>4776</v>
       </c>
-      <c r="H975" t="s">
+      <c r="J975" t="s">
         <v>4777</v>
       </c>
-      <c r="J975" t="s">
+      <c r="K975" s="1" t="s">
         <v>4778</v>
-      </c>
-      <c r="K975" s="1" t="s">
-        <v>4779</v>
       </c>
       <c r="L975" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="976" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>17</v>
       </c>
@@ -51898,31 +51890,31 @@
         <v>2</v>
       </c>
       <c r="D976">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E976" t="s">
+        <v>4779</v>
+      </c>
+      <c r="F976" t="s">
+        <v>4769</v>
+      </c>
+      <c r="G976" t="s">
         <v>4780</v>
       </c>
-      <c r="F976" t="s">
-        <v>4775</v>
-      </c>
-      <c r="G976" t="s">
+      <c r="H976" t="s">
         <v>4781</v>
       </c>
-      <c r="H976" t="s">
-        <v>4782</v>
-      </c>
       <c r="J976" t="s">
-        <v>4783</v>
+        <v>4772</v>
       </c>
       <c r="K976" s="1" t="s">
-        <v>4784</v>
+        <v>4773</v>
       </c>
       <c r="L976" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="977" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>17</v>
       </c>
@@ -51930,34 +51922,34 @@
         <v>14</v>
       </c>
       <c r="C977">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D977">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E977" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F977" t="s">
+        <v>4783</v>
+      </c>
+      <c r="G977" t="s">
+        <v>4784</v>
+      </c>
+      <c r="H977" t="s">
         <v>4785</v>
       </c>
-      <c r="F977" t="s">
-        <v>4775</v>
-      </c>
-      <c r="G977" t="s">
+      <c r="J977" t="s">
         <v>4786</v>
       </c>
-      <c r="H977" t="s">
+      <c r="K977" s="1" t="s">
         <v>4787</v>
-      </c>
-      <c r="J977" t="s">
-        <v>4778</v>
-      </c>
-      <c r="K977" s="1" t="s">
-        <v>4779</v>
       </c>
       <c r="L977" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="978" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>17</v>
       </c>
@@ -51968,31 +51960,31 @@
         <v>3</v>
       </c>
       <c r="D978">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E978" t="s">
         <v>4788</v>
       </c>
       <c r="F978" t="s">
+        <v>4783</v>
+      </c>
+      <c r="G978" t="s">
         <v>4789</v>
       </c>
-      <c r="G978" t="s">
+      <c r="H978" t="s">
         <v>4790</v>
       </c>
-      <c r="H978" t="s">
+      <c r="J978" t="s">
         <v>4791</v>
       </c>
-      <c r="J978" t="s">
+      <c r="K978" s="1" t="s">
         <v>4792</v>
-      </c>
-      <c r="K978" s="1" t="s">
-        <v>4793</v>
       </c>
       <c r="L978" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="979" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>17</v>
       </c>
@@ -52000,16 +51992,16 @@
         <v>14</v>
       </c>
       <c r="C979">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D979">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E979" t="s">
+        <v>4793</v>
+      </c>
+      <c r="F979" t="s">
         <v>4794</v>
-      </c>
-      <c r="F979" t="s">
-        <v>4789</v>
       </c>
       <c r="G979" t="s">
         <v>4795</v>
@@ -52038,31 +52030,31 @@
         <v>4</v>
       </c>
       <c r="D980">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E980" t="s">
         <v>4799</v>
       </c>
       <c r="F980" t="s">
+        <v>4794</v>
+      </c>
+      <c r="G980" t="s">
         <v>4800</v>
       </c>
-      <c r="G980" t="s">
+      <c r="H980" t="s">
         <v>4801</v>
       </c>
-      <c r="H980" t="s">
-        <v>4802</v>
-      </c>
       <c r="J980" t="s">
-        <v>4803</v>
+        <v>4797</v>
       </c>
       <c r="K980" s="1" t="s">
-        <v>4804</v>
+        <v>4798</v>
       </c>
       <c r="L980" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="981" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>17</v>
       </c>
@@ -52073,31 +52065,31 @@
         <v>4</v>
       </c>
       <c r="D981">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E981" t="s">
+        <v>4802</v>
+      </c>
+      <c r="F981" t="s">
+        <v>4794</v>
+      </c>
+      <c r="G981" t="s">
+        <v>4803</v>
+      </c>
+      <c r="H981" t="s">
+        <v>4804</v>
+      </c>
+      <c r="J981" t="s">
         <v>4805</v>
       </c>
-      <c r="F981" t="s">
-        <v>4800</v>
-      </c>
-      <c r="G981" t="s">
+      <c r="K981" s="1" t="s">
         <v>4806</v>
-      </c>
-      <c r="H981" t="s">
-        <v>4807</v>
-      </c>
-      <c r="J981" t="s">
-        <v>4803</v>
-      </c>
-      <c r="K981" s="1" t="s">
-        <v>4804</v>
       </c>
       <c r="L981" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="982" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>17</v>
       </c>
@@ -52105,16 +52097,16 @@
         <v>14</v>
       </c>
       <c r="C982">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D982">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E982" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F982" t="s">
         <v>4808</v>
-      </c>
-      <c r="F982" t="s">
-        <v>4800</v>
       </c>
       <c r="G982" t="s">
         <v>4809</v>
@@ -52129,10 +52121,10 @@
         <v>4812</v>
       </c>
       <c r="L982" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="983" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>17</v>
       </c>
@@ -52143,31 +52135,31 @@
         <v>5</v>
       </c>
       <c r="D983">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E983" t="s">
         <v>4813</v>
       </c>
       <c r="F983" t="s">
+        <v>4808</v>
+      </c>
+      <c r="G983" t="s">
         <v>4814</v>
       </c>
-      <c r="G983" t="s">
+      <c r="H983" t="s">
         <v>4815</v>
       </c>
-      <c r="H983" t="s">
+      <c r="J983" t="s">
         <v>4816</v>
       </c>
-      <c r="J983" t="s">
+      <c r="K983" s="1" t="s">
         <v>4817</v>
       </c>
-      <c r="K983" s="1" t="s">
-        <v>4818</v>
-      </c>
       <c r="L983" t="s">
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="984" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>17</v>
       </c>
@@ -52175,16 +52167,16 @@
         <v>14</v>
       </c>
       <c r="C984">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D984">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E984" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F984" t="s">
         <v>4819</v>
-      </c>
-      <c r="F984" t="s">
-        <v>4814</v>
       </c>
       <c r="G984" t="s">
         <v>4820</v>
@@ -52202,7 +52194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="985" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>17</v>
       </c>
@@ -52210,7 +52202,7 @@
         <v>14</v>
       </c>
       <c r="C985">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D985">
         <v>1</v>
@@ -52237,7 +52229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="986" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>17</v>
       </c>
@@ -52245,7 +52237,7 @@
         <v>14</v>
       </c>
       <c r="C986">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D986">
         <v>1</v>
@@ -52283,31 +52275,31 @@
         <v>9</v>
       </c>
       <c r="D987">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E987" t="s">
         <v>4836</v>
       </c>
       <c r="F987" t="s">
+        <v>4831</v>
+      </c>
+      <c r="G987" t="s">
         <v>4837</v>
       </c>
-      <c r="G987" t="s">
+      <c r="H987" t="s">
         <v>4838</v>
       </c>
-      <c r="H987" t="s">
-        <v>4839</v>
-      </c>
       <c r="J987" t="s">
-        <v>4840</v>
+        <v>4834</v>
       </c>
       <c r="K987" s="1" t="s">
-        <v>4841</v>
+        <v>4835</v>
       </c>
       <c r="L987" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="988" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>17</v>
       </c>
@@ -52318,25 +52310,25 @@
         <v>9</v>
       </c>
       <c r="D988">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E988" t="s">
+        <v>4839</v>
+      </c>
+      <c r="F988" t="s">
+        <v>4840</v>
+      </c>
+      <c r="G988" t="s">
+        <v>4841</v>
+      </c>
+      <c r="H988" t="s">
         <v>4842</v>
       </c>
-      <c r="F988" t="s">
-        <v>4837</v>
-      </c>
-      <c r="G988" t="s">
+      <c r="J988" t="s">
         <v>4843</v>
       </c>
-      <c r="H988" t="s">
+      <c r="K988" s="1" t="s">
         <v>4844</v>
-      </c>
-      <c r="J988" t="s">
-        <v>4840</v>
-      </c>
-      <c r="K988" s="1" t="s">
-        <v>4841</v>
       </c>
       <c r="L988" t="s">
         <v>22</v>
@@ -52350,10 +52342,10 @@
         <v>14</v>
       </c>
       <c r="C989">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D989">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E989" t="s">
         <v>4845</v>
@@ -52388,31 +52380,31 @@
         <v>10</v>
       </c>
       <c r="D990">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E990" t="s">
         <v>4851</v>
       </c>
       <c r="F990" t="s">
+        <v>4846</v>
+      </c>
+      <c r="G990" t="s">
         <v>4852</v>
       </c>
-      <c r="G990" t="s">
+      <c r="H990" t="s">
         <v>4853</v>
       </c>
-      <c r="H990" t="s">
+      <c r="J990" t="s">
         <v>4854</v>
       </c>
-      <c r="J990" t="s">
+      <c r="K990" s="1" t="s">
         <v>4855</v>
-      </c>
-      <c r="K990" s="1" t="s">
-        <v>4856</v>
       </c>
       <c r="L990" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="991" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>17</v>
       </c>
@@ -52420,16 +52412,16 @@
         <v>14</v>
       </c>
       <c r="C991">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D991">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E991" t="s">
+        <v>4856</v>
+      </c>
+      <c r="F991" t="s">
         <v>4857</v>
-      </c>
-      <c r="F991" t="s">
-        <v>4852</v>
       </c>
       <c r="G991" t="s">
         <v>4858</v>
@@ -52458,7 +52450,7 @@
         <v>11</v>
       </c>
       <c r="D992">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E992" t="s">
         <v>4862</v>
@@ -52473,16 +52465,16 @@
         <v>4865</v>
       </c>
       <c r="J992" t="s">
-        <v>4866</v>
+        <v>4860</v>
       </c>
       <c r="K992" s="1" t="s">
-        <v>4867</v>
+        <v>4861</v>
       </c>
       <c r="L992" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="993" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>17</v>
       </c>
@@ -52493,31 +52485,31 @@
         <v>11</v>
       </c>
       <c r="D993">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E993" t="s">
+        <v>4866</v>
+      </c>
+      <c r="F993" t="s">
+        <v>4857</v>
+      </c>
+      <c r="G993" t="s">
+        <v>4867</v>
+      </c>
+      <c r="H993" t="s">
         <v>4868</v>
       </c>
-      <c r="F993" t="s">
+      <c r="J993" t="s">
         <v>4869</v>
       </c>
-      <c r="G993" t="s">
+      <c r="K993" s="1" t="s">
         <v>4870</v>
-      </c>
-      <c r="H993" t="s">
-        <v>4871</v>
-      </c>
-      <c r="J993" t="s">
-        <v>4866</v>
-      </c>
-      <c r="K993" s="1" t="s">
-        <v>4867</v>
       </c>
       <c r="L993" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="994" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>17</v>
       </c>
@@ -52525,16 +52517,16 @@
         <v>14</v>
       </c>
       <c r="C994">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D994">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E994" t="s">
+        <v>4871</v>
+      </c>
+      <c r="F994" t="s">
         <v>4872</v>
-      </c>
-      <c r="F994" t="s">
-        <v>4863</v>
       </c>
       <c r="G994" t="s">
         <v>4873</v>
@@ -52563,7 +52555,7 @@
         <v>12</v>
       </c>
       <c r="D995">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E995" t="s">
         <v>4877</v>
@@ -52578,16 +52570,16 @@
         <v>4880</v>
       </c>
       <c r="J995" t="s">
-        <v>4881</v>
+        <v>4875</v>
       </c>
       <c r="K995" s="1" t="s">
-        <v>4882</v>
+        <v>4876</v>
       </c>
       <c r="L995" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="996" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>17</v>
       </c>
@@ -52598,31 +52590,31 @@
         <v>12</v>
       </c>
       <c r="D996">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E996" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F996" t="s">
+        <v>4882</v>
+      </c>
+      <c r="G996" t="s">
         <v>4883</v>
       </c>
-      <c r="F996" t="s">
+      <c r="H996" t="s">
         <v>4884</v>
       </c>
-      <c r="G996" t="s">
+      <c r="J996" t="s">
         <v>4885</v>
       </c>
-      <c r="H996" t="s">
+      <c r="K996" s="1" t="s">
         <v>4886</v>
-      </c>
-      <c r="J996" t="s">
-        <v>4881</v>
-      </c>
-      <c r="K996" s="1" t="s">
-        <v>4882</v>
       </c>
       <c r="L996" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="997" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>17</v>
       </c>
@@ -52630,10 +52622,10 @@
         <v>14</v>
       </c>
       <c r="C997">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D997">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E997" t="s">
         <v>4887</v>
@@ -52668,7 +52660,7 @@
         <v>14</v>
       </c>
       <c r="D998">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E998" t="s">
         <v>4893</v>
@@ -52683,16 +52675,16 @@
         <v>4896</v>
       </c>
       <c r="J998" t="s">
-        <v>4897</v>
+        <v>4891</v>
       </c>
       <c r="K998" s="1" t="s">
-        <v>4898</v>
+        <v>4892</v>
       </c>
       <c r="L998" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="999" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>17</v>
       </c>
@@ -52700,28 +52692,28 @@
         <v>14</v>
       </c>
       <c r="C999">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D999">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E999" t="s">
+        <v>4897</v>
+      </c>
+      <c r="F999" t="s">
+        <v>4898</v>
+      </c>
+      <c r="G999" t="s">
         <v>4899</v>
       </c>
-      <c r="F999" t="s">
+      <c r="H999" t="s">
         <v>4900</v>
       </c>
-      <c r="G999" t="s">
+      <c r="J999" t="s">
         <v>4901</v>
       </c>
-      <c r="H999" t="s">
+      <c r="K999" s="1" t="s">
         <v>4902</v>
-      </c>
-      <c r="J999" t="s">
-        <v>4897</v>
-      </c>
-      <c r="K999" s="1" t="s">
-        <v>4898</v>
       </c>
       <c r="L999" t="s">
         <v>22</v>
@@ -52738,7 +52730,7 @@
         <v>15</v>
       </c>
       <c r="D1000">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1000" t="s">
         <v>4903</v>
@@ -52753,10 +52745,10 @@
         <v>4906</v>
       </c>
       <c r="J1000" t="s">
-        <v>4907</v>
+        <v>4901</v>
       </c>
       <c r="K1000" s="1" t="s">
-        <v>4908</v>
+        <v>4902</v>
       </c>
       <c r="L1000" t="s">
         <v>22</v>
@@ -52773,31 +52765,31 @@
         <v>15</v>
       </c>
       <c r="D1001">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1001" t="s">
+        <v>4907</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>4908</v>
+      </c>
+      <c r="G1001" t="s">
         <v>4909</v>
       </c>
-      <c r="F1001" t="s">
+      <c r="H1001" t="s">
         <v>4910</v>
       </c>
-      <c r="G1001" t="s">
+      <c r="J1001" t="s">
         <v>4911</v>
       </c>
-      <c r="H1001" t="s">
+      <c r="K1001" s="1" t="s">
         <v>4912</v>
-      </c>
-      <c r="J1001" t="s">
-        <v>4907</v>
-      </c>
-      <c r="K1001" s="1" t="s">
-        <v>4908</v>
       </c>
       <c r="L1001" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>17</v>
       </c>
@@ -52805,10 +52797,10 @@
         <v>14</v>
       </c>
       <c r="C1002">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1002">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1002" t="s">
         <v>4913</v>
@@ -52832,7 +52824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>17</v>
       </c>
@@ -52840,7 +52832,7 @@
         <v>14</v>
       </c>
       <c r="C1003">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1003">
         <v>1</v>
@@ -52878,7 +52870,7 @@
         <v>17</v>
       </c>
       <c r="D1004">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1004" t="s">
         <v>4925</v>
@@ -52893,51 +52885,51 @@
         <v>4928</v>
       </c>
       <c r="J1004" t="s">
-        <v>4929</v>
+        <v>4923</v>
       </c>
       <c r="K1004" s="1" t="s">
-        <v>4930</v>
+        <v>4924</v>
       </c>
       <c r="L1004" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1005">
-        <v>17</v>
+    <row r="1005" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>116</v>
       </c>
       <c r="B1005" t="s">
-        <v>14</v>
+        <v>735</v>
       </c>
       <c r="C1005">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1005">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1005" t="s">
+        <v>4929</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>4930</v>
+      </c>
+      <c r="G1005" t="s">
         <v>4931</v>
       </c>
-      <c r="F1005" t="s">
+      <c r="H1005" t="s">
         <v>4932</v>
       </c>
-      <c r="G1005" t="s">
+      <c r="J1005" t="s">
         <v>4933</v>
       </c>
-      <c r="H1005" t="s">
+      <c r="K1005" t="s">
         <v>4934</v>
       </c>
-      <c r="J1005" t="s">
-        <v>4929</v>
-      </c>
-      <c r="K1005" s="1" t="s">
-        <v>4930</v>
-      </c>
       <c r="L1005" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>116</v>
       </c>
@@ -52948,31 +52940,31 @@
         <v>1</v>
       </c>
       <c r="D1006">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1006" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="F1006" t="s">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="G1006" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="H1006" t="s">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="J1006" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1006" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1006" s="1" t="s">
         <v>4940</v>
       </c>
       <c r="L1006" t="s">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>116</v>
       </c>
@@ -52980,31 +52972,31 @@
         <v>735</v>
       </c>
       <c r="C1007">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1007">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1007" t="s">
+        <v>4941</v>
+      </c>
+      <c r="F1007" t="s">
         <v>4942</v>
       </c>
-      <c r="F1007" t="s">
+      <c r="G1007" t="s">
         <v>4943</v>
       </c>
-      <c r="G1007" t="s">
+      <c r="H1007" t="s">
         <v>4944</v>
       </c>
-      <c r="H1007" t="s">
+      <c r="J1007" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1007" s="1" t="s">
         <v>4945</v>
       </c>
-      <c r="J1007" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1007" s="1" t="s">
-        <v>4946</v>
-      </c>
       <c r="L1007" t="s">
-        <v>61</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1008" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -53018,31 +53010,31 @@
         <v>2</v>
       </c>
       <c r="D1008">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1008" t="s">
+        <v>4946</v>
+      </c>
+      <c r="F1008" t="s">
         <v>4947</v>
       </c>
-      <c r="F1008" t="s">
+      <c r="G1008" t="s">
         <v>4948</v>
       </c>
-      <c r="G1008" t="s">
+      <c r="H1008" t="s">
         <v>4949</v>
       </c>
-      <c r="H1008" t="s">
-        <v>4950</v>
-      </c>
       <c r="J1008" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1008" s="1" t="s">
-        <v>4951</v>
+        <v>4945</v>
       </c>
       <c r="L1008" t="s">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>116</v>
       </c>
@@ -53050,31 +53042,31 @@
         <v>735</v>
       </c>
       <c r="C1009">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1009">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1009" t="s">
+        <v>4950</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>4942</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>4943</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>4951</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1009" s="1" t="s">
         <v>4952</v>
       </c>
-      <c r="F1009" t="s">
-        <v>4953</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>4954</v>
-      </c>
-      <c r="H1009" t="s">
-        <v>4955</v>
-      </c>
-      <c r="J1009" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1009" s="1" t="s">
-        <v>4951</v>
-      </c>
       <c r="L1009" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1010" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -53088,31 +53080,31 @@
         <v>3</v>
       </c>
       <c r="D1010">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1010" t="s">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="F1010" t="s">
+        <v>4947</v>
+      </c>
+      <c r="G1010" t="s">
         <v>4948</v>
       </c>
-      <c r="G1010" t="s">
-        <v>4949</v>
-      </c>
       <c r="H1010" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="J1010" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1010" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="L1010" t="s">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>116</v>
       </c>
@@ -53120,31 +53112,31 @@
         <v>735</v>
       </c>
       <c r="C1011">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1011">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1011" t="s">
+        <v>4956</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>4957</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>4958</v>
+      </c>
+      <c r="H1011" t="s">
         <v>4959</v>
       </c>
-      <c r="F1011" t="s">
-        <v>4953</v>
-      </c>
-      <c r="G1011" t="s">
-        <v>4954</v>
-      </c>
-      <c r="H1011" t="s">
+      <c r="J1011" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1011" t="s">
         <v>4960</v>
       </c>
-      <c r="J1011" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1011" s="1" t="s">
-        <v>4961</v>
-      </c>
       <c r="L1011" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
@@ -53152,34 +53144,34 @@
         <v>116</v>
       </c>
       <c r="B1012" t="s">
-        <v>735</v>
+        <v>116</v>
       </c>
       <c r="C1012">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1012">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1012" t="s">
+        <v>4961</v>
+      </c>
+      <c r="F1012" t="s">
         <v>4962</v>
       </c>
-      <c r="F1012" t="s">
+      <c r="G1012" t="s">
         <v>4963</v>
       </c>
-      <c r="G1012" t="s">
+      <c r="H1012" t="s">
         <v>4964</v>
       </c>
-      <c r="H1012" t="s">
+      <c r="J1012" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1012" t="s">
         <v>4965</v>
       </c>
-      <c r="J1012" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1012" t="s">
-        <v>4966</v>
-      </c>
       <c r="L1012" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
@@ -53190,31 +53182,31 @@
         <v>116</v>
       </c>
       <c r="C1013">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1013">
         <v>1</v>
       </c>
       <c r="E1013" t="s">
+        <v>4966</v>
+      </c>
+      <c r="F1013" t="s">
         <v>4967</v>
       </c>
-      <c r="F1013" t="s">
+      <c r="G1013" t="s">
         <v>4968</v>
       </c>
-      <c r="G1013" t="s">
+      <c r="H1013" t="s">
         <v>4969</v>
       </c>
-      <c r="H1013" t="s">
+      <c r="J1013" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1013" t="s">
         <v>4970</v>
       </c>
-      <c r="J1013" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1013" t="s">
-        <v>4971</v>
-      </c>
       <c r="L1013" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
@@ -53225,31 +53217,31 @@
         <v>116</v>
       </c>
       <c r="C1014">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1014">
         <v>1</v>
       </c>
       <c r="E1014" t="s">
+        <v>4971</v>
+      </c>
+      <c r="F1014" t="s">
         <v>4972</v>
       </c>
-      <c r="F1014" t="s">
+      <c r="G1014" t="s">
         <v>4973</v>
       </c>
-      <c r="G1014" t="s">
+      <c r="H1014" t="s">
         <v>4974</v>
       </c>
-      <c r="H1014" t="s">
+      <c r="J1014" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1014" t="s">
         <v>4975</v>
       </c>
-      <c r="J1014" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1014" t="s">
-        <v>4976</v>
-      </c>
       <c r="L1014" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
@@ -53260,31 +53252,31 @@
         <v>116</v>
       </c>
       <c r="C1015">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1015">
         <v>1</v>
       </c>
       <c r="E1015" t="s">
+        <v>4976</v>
+      </c>
+      <c r="F1015" t="s">
         <v>4977</v>
       </c>
-      <c r="F1015" t="s">
+      <c r="G1015" t="s">
         <v>4978</v>
       </c>
-      <c r="G1015" t="s">
+      <c r="H1015" t="s">
         <v>4979</v>
       </c>
-      <c r="H1015" t="s">
+      <c r="J1015" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1015" t="s">
         <v>4980</v>
       </c>
-      <c r="J1015" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1015" t="s">
-        <v>4981</v>
-      </c>
       <c r="L1015" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
@@ -53292,34 +53284,34 @@
         <v>116</v>
       </c>
       <c r="B1016" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C1016">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1016">
         <v>1</v>
       </c>
       <c r="E1016" t="s">
+        <v>4981</v>
+      </c>
+      <c r="F1016" t="s">
         <v>4982</v>
       </c>
-      <c r="F1016" t="s">
+      <c r="G1016" t="s">
         <v>4983</v>
       </c>
-      <c r="G1016" t="s">
+      <c r="H1016" t="s">
         <v>4984</v>
       </c>
-      <c r="H1016" t="s">
+      <c r="J1016" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1016" t="s">
         <v>4985</v>
       </c>
-      <c r="J1016" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1016" t="s">
-        <v>4986</v>
-      </c>
       <c r="L1016" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
@@ -53333,28 +53325,28 @@
         <v>6</v>
       </c>
       <c r="D1017">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1017" t="s">
+        <v>4986</v>
+      </c>
+      <c r="F1017" t="s">
         <v>4987</v>
       </c>
-      <c r="F1017" t="s">
+      <c r="G1017" t="s">
+        <v>4987</v>
+      </c>
+      <c r="H1017" t="s">
         <v>4988</v>
       </c>
-      <c r="G1017" t="s">
-        <v>4989</v>
-      </c>
-      <c r="H1017" t="s">
-        <v>4990</v>
-      </c>
       <c r="J1017" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1017" t="s">
-        <v>4991</v>
+        <v>4985</v>
       </c>
       <c r="L1017" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
@@ -53368,28 +53360,28 @@
         <v>6</v>
       </c>
       <c r="D1018">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1018" t="s">
-        <v>4992</v>
+        <v>4989</v>
       </c>
       <c r="F1018" t="s">
-        <v>4993</v>
+        <v>4990</v>
       </c>
       <c r="G1018" t="s">
-        <v>4993</v>
+        <v>4990</v>
       </c>
       <c r="H1018" t="s">
-        <v>4994</v>
+        <v>4991</v>
       </c>
       <c r="J1018" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1018" t="s">
-        <v>4991</v>
+        <v>4985</v>
       </c>
       <c r="L1018" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
@@ -53400,31 +53392,31 @@
         <v>123</v>
       </c>
       <c r="C1019">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1019">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1019" t="s">
+        <v>4992</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>4993</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>4994</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1019" t="s">
         <v>4995</v>
       </c>
-      <c r="F1019" t="s">
-        <v>4996</v>
-      </c>
-      <c r="G1019" t="s">
-        <v>4996</v>
-      </c>
-      <c r="H1019" t="s">
-        <v>4997</v>
-      </c>
-      <c r="J1019" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1019" t="s">
-        <v>4991</v>
-      </c>
       <c r="L1019" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
@@ -53438,28 +53430,28 @@
         <v>7</v>
       </c>
       <c r="D1020">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1020" t="s">
+        <v>4996</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>4997</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>4997</v>
+      </c>
+      <c r="H1020" t="s">
         <v>4998</v>
       </c>
-      <c r="F1020" t="s">
-        <v>4999</v>
-      </c>
-      <c r="G1020" t="s">
-        <v>4999</v>
-      </c>
-      <c r="H1020" t="s">
-        <v>5000</v>
-      </c>
       <c r="J1020" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1020" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
       <c r="L1020" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
@@ -53473,28 +53465,28 @@
         <v>7</v>
       </c>
       <c r="D1021">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1021" t="s">
-        <v>5002</v>
+        <v>4999</v>
       </c>
       <c r="F1021" t="s">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="G1021" t="s">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="H1021" t="s">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="J1021" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1021" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
       <c r="L1021" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
@@ -53505,31 +53497,31 @@
         <v>123</v>
       </c>
       <c r="C1022">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1022">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1022" t="s">
+        <v>5002</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>5003</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>5003</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>5004</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1022" t="s">
         <v>5005</v>
       </c>
-      <c r="F1022" t="s">
-        <v>5006</v>
-      </c>
-      <c r="G1022" t="s">
-        <v>5006</v>
-      </c>
-      <c r="H1022" t="s">
-        <v>5007</v>
-      </c>
-      <c r="J1022" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1022" t="s">
-        <v>5001</v>
-      </c>
       <c r="L1022" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
@@ -53543,28 +53535,28 @@
         <v>8</v>
       </c>
       <c r="D1023">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1023" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>5007</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>5007</v>
+      </c>
+      <c r="H1023" t="s">
         <v>5008</v>
       </c>
-      <c r="F1023" t="s">
-        <v>5009</v>
-      </c>
-      <c r="G1023" t="s">
-        <v>5009</v>
-      </c>
-      <c r="H1023" t="s">
-        <v>5010</v>
-      </c>
       <c r="J1023" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="K1023" t="s">
-        <v>5011</v>
+        <v>5005</v>
       </c>
       <c r="L1023" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
@@ -53578,77 +53570,77 @@
         <v>8</v>
       </c>
       <c r="D1024">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1024" t="s">
+        <v>5009</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>5010</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>5010</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>5011</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>4933</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>5005</v>
+      </c>
+      <c r="L1024" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
         <v>5012</v>
       </c>
-      <c r="F1024" t="s">
-        <v>5013</v>
-      </c>
-      <c r="G1024" t="s">
-        <v>5013</v>
-      </c>
-      <c r="H1024" t="s">
-        <v>5014</v>
-      </c>
-      <c r="J1024" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1024" t="s">
-        <v>5011</v>
-      </c>
-      <c r="L1024" t="s">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
-        <v>116</v>
-      </c>
       <c r="B1025" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C1025">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1025">
         <v>3</v>
       </c>
       <c r="E1025" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G1025" t="s">
         <v>5015</v>
       </c>
-      <c r="F1025" t="s">
+      <c r="H1025" t="s">
         <v>5016</v>
       </c>
-      <c r="G1025" t="s">
-        <v>5016</v>
-      </c>
-      <c r="H1025" t="s">
+      <c r="J1025" t="s">
         <v>5017</v>
       </c>
-      <c r="J1025" t="s">
-        <v>4939</v>
-      </c>
-      <c r="K1025" t="s">
-        <v>5011</v>
+      <c r="K1025" s="1" t="s">
+        <v>5018</v>
       </c>
       <c r="L1025" t="s">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1026" t="s">
         <v>14</v>
       </c>
       <c r="C1026">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1026">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1026" t="s">
         <v>5019</v>
@@ -53674,16 +53666,16 @@
     </row>
     <row r="1027" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1027" t="s">
         <v>14</v>
       </c>
       <c r="C1027">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1027">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1027" t="s">
         <v>5025</v>
@@ -53698,10 +53690,10 @@
         <v>5028</v>
       </c>
       <c r="J1027" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K1027" s="1" t="s">
         <v>5029</v>
-      </c>
-      <c r="K1027" s="1" t="s">
-        <v>5030</v>
       </c>
       <c r="L1027" t="s">
         <v>363</v>
@@ -53709,31 +53701,31 @@
     </row>
     <row r="1028" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1028" t="s">
         <v>14</v>
       </c>
       <c r="C1028">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1028">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1028" t="s">
+        <v>5030</v>
+      </c>
+      <c r="F1028" t="s">
         <v>5031</v>
       </c>
-      <c r="F1028" t="s">
+      <c r="G1028" t="s">
         <v>5032</v>
       </c>
-      <c r="G1028" t="s">
+      <c r="H1028" t="s">
         <v>5033</v>
       </c>
-      <c r="H1028" t="s">
+      <c r="J1028" t="s">
         <v>5034</v>
-      </c>
-      <c r="J1028" t="s">
-        <v>1483</v>
       </c>
       <c r="K1028" s="1" t="s">
         <v>5035</v>
@@ -53744,7 +53736,7 @@
     </row>
     <row r="1029" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1029" t="s">
         <v>14</v>
@@ -53753,7 +53745,7 @@
         <v>4</v>
       </c>
       <c r="D1029">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1029" t="s">
         <v>5036</v>
@@ -53779,7 +53771,7 @@
     </row>
     <row r="1030" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1030" t="s">
         <v>14</v>
@@ -53788,7 +53780,7 @@
         <v>4</v>
       </c>
       <c r="D1030">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1030" t="s">
         <v>5042</v>
@@ -53814,16 +53806,16 @@
     </row>
     <row r="1031" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1031" t="s">
         <v>14</v>
       </c>
       <c r="C1031">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1031">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1031" t="s">
         <v>5048</v>
@@ -53849,7 +53841,7 @@
     </row>
     <row r="1032" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1032" t="s">
         <v>14</v>
@@ -53858,7 +53850,7 @@
         <v>5</v>
       </c>
       <c r="D1032">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1032" t="s">
         <v>5054</v>
@@ -53873,10 +53865,10 @@
         <v>5057</v>
       </c>
       <c r="J1032" t="s">
+        <v>5052</v>
+      </c>
+      <c r="K1032" s="1" t="s">
         <v>5058</v>
-      </c>
-      <c r="K1032" s="1" t="s">
-        <v>5059</v>
       </c>
       <c r="L1032" t="s">
         <v>363</v>
@@ -53884,7 +53876,7 @@
     </row>
     <row r="1033" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1033" t="s">
         <v>14</v>
@@ -53893,22 +53885,22 @@
         <v>5</v>
       </c>
       <c r="D1033">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1033" t="s">
+        <v>5059</v>
+      </c>
+      <c r="F1033" t="s">
         <v>5060</v>
       </c>
-      <c r="F1033" t="s">
+      <c r="G1033" t="s">
         <v>5061</v>
       </c>
-      <c r="G1033" t="s">
+      <c r="H1033" t="s">
         <v>5062</v>
       </c>
-      <c r="H1033" t="s">
+      <c r="J1033" t="s">
         <v>5063</v>
-      </c>
-      <c r="J1033" t="s">
-        <v>5058</v>
       </c>
       <c r="K1033" s="1" t="s">
         <v>5064</v>
@@ -53919,7 +53911,7 @@
     </row>
     <row r="1034" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1034" t="s">
         <v>14</v>
@@ -53928,7 +53920,7 @@
         <v>5</v>
       </c>
       <c r="D1034">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1034" t="s">
         <v>5065</v>
@@ -53943,18 +53935,18 @@
         <v>5068</v>
       </c>
       <c r="J1034" t="s">
-        <v>5069</v>
+        <v>5052</v>
       </c>
       <c r="K1034" s="1" t="s">
-        <v>5070</v>
+        <v>5058</v>
       </c>
       <c r="L1034" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1035" t="s">
         <v>14</v>
@@ -53963,25 +53955,25 @@
         <v>5</v>
       </c>
       <c r="D1035">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1035" t="s">
+        <v>5069</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>5070</v>
+      </c>
+      <c r="G1035" t="s">
         <v>5071</v>
       </c>
-      <c r="F1035" t="s">
+      <c r="H1035" t="s">
         <v>5072</v>
       </c>
-      <c r="G1035" t="s">
+      <c r="J1035" t="s">
+        <v>5063</v>
+      </c>
+      <c r="K1035" s="1" t="s">
         <v>5073</v>
-      </c>
-      <c r="H1035" t="s">
-        <v>5074</v>
-      </c>
-      <c r="J1035" t="s">
-        <v>5058</v>
-      </c>
-      <c r="K1035" s="1" t="s">
-        <v>5064</v>
       </c>
       <c r="L1035" t="s">
         <v>363</v>
@@ -53989,7 +53981,7 @@
     </row>
     <row r="1036" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1036" t="s">
         <v>14</v>
@@ -53998,25 +53990,25 @@
         <v>5</v>
       </c>
       <c r="D1036">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1036" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F1036" t="s">
         <v>5075</v>
       </c>
-      <c r="F1036" t="s">
+      <c r="G1036" t="s">
         <v>5076</v>
       </c>
-      <c r="G1036" t="s">
+      <c r="H1036" t="s">
         <v>5077</v>
       </c>
-      <c r="H1036" t="s">
-        <v>5078</v>
-      </c>
       <c r="J1036" t="s">
-        <v>5069</v>
+        <v>5063</v>
       </c>
       <c r="K1036" s="1" t="s">
-        <v>5079</v>
+        <v>5073</v>
       </c>
       <c r="L1036" t="s">
         <v>363</v>
@@ -54024,7 +54016,7 @@
     </row>
     <row r="1037" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1037" t="s">
         <v>14</v>
@@ -54033,74 +54025,74 @@
         <v>5</v>
       </c>
       <c r="D1037">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1037" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>5079</v>
+      </c>
+      <c r="G1037" t="s">
         <v>5080</v>
       </c>
-      <c r="F1037" t="s">
+      <c r="H1037" t="s">
         <v>5081</v>
       </c>
-      <c r="G1037" t="s">
-        <v>5082</v>
-      </c>
-      <c r="H1037" t="s">
-        <v>5083</v>
-      </c>
       <c r="J1037" t="s">
-        <v>5069</v>
+        <v>5063</v>
       </c>
       <c r="K1037" s="1" t="s">
-        <v>5079</v>
+        <v>5073</v>
       </c>
       <c r="L1037" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1038" t="s">
         <v>14</v>
       </c>
       <c r="C1038">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1038">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1038" t="s">
+        <v>5082</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>5083</v>
+      </c>
+      <c r="G1038" t="s">
         <v>5084</v>
       </c>
-      <c r="F1038" t="s">
+      <c r="H1038" t="s">
         <v>5085</v>
       </c>
-      <c r="G1038" t="s">
+      <c r="J1038" t="s">
         <v>5086</v>
       </c>
-      <c r="H1038" t="s">
+      <c r="K1038" s="1" t="s">
         <v>5087</v>
-      </c>
-      <c r="J1038" t="s">
-        <v>5069</v>
-      </c>
-      <c r="K1038" s="1" t="s">
-        <v>5079</v>
       </c>
       <c r="L1038" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1039" t="s">
         <v>14</v>
       </c>
       <c r="C1039">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1039">
         <v>1</v>
@@ -54112,24 +54104,15 @@
         <v>5089</v>
       </c>
       <c r="G1039" t="s">
+        <v>5089</v>
+      </c>
+      <c r="H1039" t="s">
         <v>5090</v>
-      </c>
-      <c r="H1039" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J1039" t="s">
-        <v>5092</v>
-      </c>
-      <c r="K1039" s="1" t="s">
-        <v>5093</v>
-      </c>
-      <c r="L1039" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="1040" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1040" t="s">
         <v>14</v>
@@ -54138,24 +54121,24 @@
         <v>7</v>
       </c>
       <c r="D1040">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1040" t="s">
-        <v>5094</v>
+        <v>5091</v>
       </c>
       <c r="F1040" t="s">
-        <v>5095</v>
+        <v>5092</v>
       </c>
       <c r="G1040" t="s">
-        <v>5095</v>
+        <v>5092</v>
       </c>
       <c r="H1040" t="s">
-        <v>5096</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1041" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1041" t="s">
         <v>14</v>
@@ -54164,24 +54147,24 @@
         <v>7</v>
       </c>
       <c r="D1041">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1041" t="s">
-        <v>5097</v>
+        <v>5094</v>
       </c>
       <c r="F1041" t="s">
-        <v>5098</v>
+        <v>5095</v>
       </c>
       <c r="G1041" t="s">
-        <v>5098</v>
+        <v>5095</v>
       </c>
       <c r="H1041" t="s">
-        <v>5099</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="1042" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1042" t="s">
         <v>14</v>
@@ -54190,24 +54173,21 @@
         <v>7</v>
       </c>
       <c r="D1042">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1042" t="s">
-        <v>5100</v>
-      </c>
-      <c r="F1042" t="s">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="G1042" t="s">
-        <v>5101</v>
+        <v>5098</v>
       </c>
       <c r="H1042" t="s">
-        <v>5102</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1043" t="s">
         <v>14</v>
@@ -54219,18 +54199,30 @@
         <v>9</v>
       </c>
       <c r="E1043" t="s">
+        <v>5097</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>5100</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>5101</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J1043" t="s">
         <v>5103</v>
       </c>
-      <c r="G1043" t="s">
+      <c r="K1043" s="1" t="s">
         <v>5104</v>
       </c>
-      <c r="H1043" t="s">
-        <v>5105</v>
+      <c r="L1043" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="1044" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1044" t="s">
         <v>14</v>
@@ -54239,10 +54231,10 @@
         <v>7</v>
       </c>
       <c r="D1044">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1044" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="F1044" t="s">
         <v>5106</v>
@@ -54263,9 +54255,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1045" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1045" t="s">
         <v>14</v>
@@ -54274,7 +54266,7 @@
         <v>7</v>
       </c>
       <c r="D1045">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1045" t="s">
         <v>5111</v>
@@ -54298,9 +54290,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1046" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1046" t="s">
         <v>14</v>
@@ -54309,7 +54301,7 @@
         <v>7</v>
       </c>
       <c r="D1046">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1046" t="s">
         <v>5117</v>
@@ -54335,16 +54327,16 @@
     </row>
     <row r="1047" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1047" t="s">
         <v>14</v>
       </c>
       <c r="C1047">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1047">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E1047" t="s">
         <v>5123</v>
@@ -54368,9 +54360,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1048" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1048" t="s">
         <v>14</v>
@@ -54379,7 +54371,7 @@
         <v>8</v>
       </c>
       <c r="D1048">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1048" t="s">
         <v>5129</v>
@@ -54403,9 +54395,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1049" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1049" t="s">
         <v>14</v>
@@ -54414,7 +54406,7 @@
         <v>8</v>
       </c>
       <c r="D1049">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1049" t="s">
         <v>5135</v>
@@ -54429,18 +54421,18 @@
         <v>5138</v>
       </c>
       <c r="J1049" t="s">
+        <v>5133</v>
+      </c>
+      <c r="K1049" s="1" t="s">
         <v>5139</v>
-      </c>
-      <c r="K1049" s="1" t="s">
-        <v>5140</v>
       </c>
       <c r="L1049" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1050" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1050" t="s">
         <v>14</v>
@@ -54449,22 +54441,22 @@
         <v>8</v>
       </c>
       <c r="D1050">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1050" t="s">
+        <v>5140</v>
+      </c>
+      <c r="F1050" t="s">
         <v>5141</v>
       </c>
-      <c r="F1050" t="s">
+      <c r="G1050" t="s">
         <v>5142</v>
       </c>
-      <c r="G1050" t="s">
+      <c r="H1050" t="s">
         <v>5143</v>
       </c>
-      <c r="H1050" t="s">
+      <c r="J1050" t="s">
         <v>5144</v>
-      </c>
-      <c r="J1050" t="s">
-        <v>5139</v>
       </c>
       <c r="K1050" s="1" t="s">
         <v>5145</v>
@@ -54473,18 +54465,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1051" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1051" t="s">
         <v>14</v>
       </c>
       <c r="C1051">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1051">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1051" t="s">
         <v>5146</v>
@@ -54510,7 +54502,7 @@
     </row>
     <row r="1052" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1052" t="s">
         <v>14</v>
@@ -54519,7 +54511,7 @@
         <v>9</v>
       </c>
       <c r="D1052">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1052" t="s">
         <v>5152</v>
@@ -54534,48 +54526,27 @@
         <v>5155</v>
       </c>
       <c r="J1052" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="K1052" s="1" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="L1052" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1053" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>5018</v>
-      </c>
-      <c r="B1053" t="s">
         <v>14</v>
       </c>
+      <c r="B1053">
+        <v>1</v>
+      </c>
       <c r="C1053">
-        <v>9</v>
-      </c>
-      <c r="D1053">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1053" t="s">
-        <v>5158</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>5159</v>
-      </c>
-      <c r="G1053" t="s">
-        <v>5160</v>
-      </c>
-      <c r="H1053" t="s">
-        <v>5161</v>
-      </c>
-      <c r="J1053" t="s">
-        <v>5156</v>
-      </c>
-      <c r="K1053" s="1" t="s">
-        <v>5157</v>
-      </c>
-      <c r="L1053" t="s">
-        <v>363</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1054" spans="1:12" x14ac:dyDescent="0.25">
@@ -54589,35 +54560,56 @@
         <v>1</v>
       </c>
       <c r="E1054" t="s">
-        <v>5183</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B1055" t="s">
         <v>14</v>
       </c>
-      <c r="B1055">
-        <v>1</v>
-      </c>
       <c r="C1055">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D1055">
+        <v>3</v>
       </c>
       <c r="E1055" t="s">
-        <v>5183</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>5156</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>5157</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>5158</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>5159</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>5160</v>
+      </c>
+      <c r="K1055" s="1" t="s">
+        <v>5161</v>
+      </c>
+      <c r="L1055" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B1056" t="s">
         <v>14</v>
       </c>
       <c r="C1056">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1056">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1056" t="s">
         <v>5162</v>
@@ -54641,39 +54633,33 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1057" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>5018</v>
+    <row r="1057" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>13</v>
       </c>
       <c r="B1057" t="s">
         <v>14</v>
       </c>
       <c r="C1057">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1057">
         <v>1</v>
       </c>
       <c r="E1057" t="s">
-        <v>5168</v>
+        <v>19</v>
       </c>
       <c r="F1057" t="s">
-        <v>5169</v>
+        <v>20</v>
       </c>
       <c r="G1057" t="s">
-        <v>5170</v>
+        <v>21</v>
       </c>
       <c r="H1057" t="s">
-        <v>5171</v>
-      </c>
-      <c r="J1057" t="s">
-        <v>5172</v>
-      </c>
-      <c r="K1057" s="1" t="s">
-        <v>5173</v>
+        <v>45</v>
       </c>
       <c r="L1057" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1058" spans="1:12" x14ac:dyDescent="0.25">
@@ -54687,19 +54673,19 @@
         <v>4</v>
       </c>
       <c r="D1058">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1058" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1058" t="s">
         <v>20</v>
       </c>
       <c r="G1058" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1058" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1058" t="s">
         <v>22</v>
@@ -54716,19 +54702,19 @@
         <v>4</v>
       </c>
       <c r="D1059">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1059" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1059" t="s">
         <v>20</v>
       </c>
       <c r="G1059" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1059" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1059" t="s">
         <v>22</v>
@@ -54745,19 +54731,19 @@
         <v>4</v>
       </c>
       <c r="D1060">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1060" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1060" t="s">
         <v>20</v>
       </c>
       <c r="G1060" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1060" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1060" t="s">
         <v>22</v>
@@ -54774,19 +54760,19 @@
         <v>4</v>
       </c>
       <c r="D1061">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1061" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1061" t="s">
         <v>20</v>
       </c>
       <c r="G1061" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1061" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1061" t="s">
         <v>22</v>
@@ -54803,19 +54789,19 @@
         <v>4</v>
       </c>
       <c r="D1062">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1062" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1062" t="s">
         <v>20</v>
       </c>
       <c r="G1062" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1062" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1062" t="s">
         <v>22</v>
@@ -54832,19 +54818,19 @@
         <v>4</v>
       </c>
       <c r="D1063">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1063" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1063" t="s">
         <v>20</v>
       </c>
       <c r="G1063" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1063" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1063" t="s">
         <v>22</v>
@@ -54861,19 +54847,19 @@
         <v>4</v>
       </c>
       <c r="D1064">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1064" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1064" t="s">
         <v>20</v>
       </c>
       <c r="G1064" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1064" t="s">
-        <v>51</v>
+        <v>5168</v>
       </c>
       <c r="L1064" t="s">
         <v>22</v>
@@ -54890,19 +54876,19 @@
         <v>4</v>
       </c>
       <c r="D1065">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1065" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1065" t="s">
         <v>20</v>
       </c>
       <c r="G1065" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1065" t="s">
-        <v>5174</v>
+        <v>5169</v>
       </c>
       <c r="L1065" t="s">
         <v>22</v>
@@ -54916,22 +54902,22 @@
         <v>14</v>
       </c>
       <c r="C1066">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1066">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E1066" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1066" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G1066" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1066" t="s">
-        <v>5175</v>
+        <v>5170</v>
       </c>
       <c r="L1066" t="s">
         <v>22</v>
@@ -54948,19 +54934,19 @@
         <v>8</v>
       </c>
       <c r="D1067">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1067" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1067" t="s">
         <v>40</v>
       </c>
       <c r="G1067" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1067" t="s">
-        <v>5176</v>
+        <v>54</v>
       </c>
       <c r="L1067" t="s">
         <v>22</v>
@@ -54974,22 +54960,25 @@
         <v>14</v>
       </c>
       <c r="C1068">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1068">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1068" t="s">
-        <v>42</v>
+        <v>5178</v>
       </c>
       <c r="F1068" t="s">
-        <v>40</v>
+        <v>5179</v>
       </c>
       <c r="G1068" t="s">
-        <v>43</v>
+        <v>5180</v>
       </c>
       <c r="H1068" t="s">
-        <v>54</v>
+        <v>5181</v>
+      </c>
+      <c r="J1068" t="s">
+        <v>5182</v>
       </c>
       <c r="L1068" t="s">
         <v>22</v>
